--- a/Design/DataTable/Monster/MonsterElementStat.xlsx
+++ b/Design/DataTable/Monster/MonsterElementStat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\바탕 화면\plum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\PlumTowerDefecne\Design\DataTable\Monster\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EDF85B0-B627-4E80-AE67-FD8812A123D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C823AD89-D1F5-4FC0-B990-C06D67CABD65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F75F47ED-A9A6-4F34-9558-87648AB28419}"/>
+    <workbookView xWindow="9948" yWindow="3636" windowWidth="12240" windowHeight="7284" xr2:uid="{F75F47ED-A9A6-4F34-9558-87648AB28419}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,7 +447,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -517,7 +517,7 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -537,7 +537,7 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
@@ -548,13 +548,13 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>40</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
